--- a/biology/Botanique/Calamoideae/Calamoideae.xlsx
+++ b/biology/Botanique/Calamoideae/Calamoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Calamoideae sont une sous - famille de la famille des palmiers Arecaceae contenant 21 genres et environ 620 espèces. On les trouve presque exclusivement dans les tropiques de l' Ancien Monde, mais avec trois genres ( Mauritia, Mauritiella, Lepidocaryum ) et une seule espèce de Raphia ( R. taedigera ) dans les tropiques du Nouveau Monde[1],[2] . Calamoideae comprend les palmiers  rotin, dont les tiges sont récoltées pour la production de meubles en rotin et de nombreux autres produits. Toutes les espèces ont des fruits couverts d'écailles distinctives qui se chevauchent. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Calamoideae sont une sous - famille de la famille des palmiers Arecaceae contenant 21 genres et environ 620 espèces. On les trouve presque exclusivement dans les tropiques de l' Ancien Monde, mais avec trois genres ( Mauritia, Mauritiella, Lepidocaryum ) et une seule espèce de Raphia ( R. taedigera ) dans les tropiques du Nouveau Monde, . Calamoideae comprend les palmiers  rotin, dont les tiges sont récoltées pour la production de meubles en rotin et de nombreux autres produits. Toutes les espèces ont des fruits couverts d'écailles distinctives qui se chevauchent. 
 			Fruits de Salacca zalacca
 			fruits de Calamus
 			Fruits de Mauritiella &amp; de Mauritia
@@ -516,9 +528,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Calamoideae sont divisés en trois tribus[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Calamoideae sont divisés en trois tribus:
 Tribu Eugeissoneae
 Eugeissona
 Tribu Lepidocaryeae
@@ -552,8 +566,8 @@
 (Daemonorops)
 (Ceratolobus)
 (Pogonotium)
-Certaines classifications combinent les 5 genres de sous-tribu Calamineae en un seul genre élargi «Calamus». Cela augmente la taille de ce qui est déjà le plus grand genre de palmier d'un peu plus de 370 espèces[2] vers presque  520[4]. La base de données Plants of the World Online (PoWO) en 2022, référence 482 espèces acceptées [5].
-Pour la reprise de la famille Arecaceae en 2016 dans « Beyond Genera Palmarum » William Baker et John Dransfield en compilant les analyses phylogénétiques regrouperont dans le genre ‘’Calamus’’ les genres Retispatha, Daemonorops, Ceratolobus, Pogonotium [6].
+Certaines classifications combinent les 5 genres de sous-tribu Calamineae en un seul genre élargi «Calamus». Cela augmente la taille de ce qui est déjà le plus grand genre de palmier d'un peu plus de 370 espèces vers presque  520. La base de données Plants of the World Online (PoWO) en 2022, référence 482 espèces acceptées .
+Pour la reprise de la famille Arecaceae en 2016 dans « Beyond Genera Palmarum » William Baker et John Dransfield en compilant les analyses phylogénétiques regrouperont dans le genre ‘’Calamus’’ les genres Retispatha, Daemonorops, Ceratolobus, Pogonotium .
 </t>
         </is>
       </c>
